--- a/Proposal/Form Kontrol Revisi Sempro.xlsx
+++ b/Proposal/Form Kontrol Revisi Sempro.xlsx
@@ -1127,7 +1127,7 @@
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,12 +1511,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B27:B29"/>
@@ -1527,6 +1521,12 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E33">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="DONE">
